--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,47 +469,64 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,14 +469,44 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ayoubi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06-05-1993</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aleppo</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Oberhausen</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -486,47 +516,64 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ayoubi</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Mukhtar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-05-1993</t>
+          <t>09-02-1989</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Peshawar/PAK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Recklinghausen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -516,14 +516,44 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ayoubi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06-05-1993</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aleppo</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Oberhausen</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -533,47 +563,64 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,39 +469,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ayoubi</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Mukhtar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06-05-1993</t>
+          <t>09-02-1989</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Peshawar/PAK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +518,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Recklinghausen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -563,14 +533,44 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ayoubi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06-05-1993</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aleppo</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Oberhausen</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -580,47 +580,64 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,14 +469,44 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juma Murad</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Murad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01-01-1982</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bahzani</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Rehberg Loccum</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -486,39 +516,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -535,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ayoubi</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Mukhtar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06-05-1993</t>
+          <t>09-02-1989</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Peshawar/PAK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -565,12 +565,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Recklinghausen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -580,14 +580,44 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ayoubi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>06-05-1993</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aleppo</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Oberhausen</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -597,47 +627,64 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Juma Murad</t>
+          <t>Ngome</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murad</t>
+          <t>Edwin Ntongwe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-1982</t>
+          <t>09-10-1981</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bahzani</t>
+          <t>Tombel</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rehberg Loccum</t>
+          <t>Herne</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -516,14 +516,44 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juma Murad</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Murad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-01-1982</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bahzani</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Rehberg Loccum</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -533,39 +563,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ayoubi</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Mukhtar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06-05-1993</t>
+          <t>09-02-1989</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Peshawar/PAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recklinghausen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -627,14 +627,44 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ayoubi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06-05-1993</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aleppo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Oberhausen</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -644,47 +674,64 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,101 +518,101 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -629,109 +629,156 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,101 +565,101 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -676,109 +676,156 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jamalabadi</t>
+          <t>Hassan Haashi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samin</t>
+          <t>Abdiqadir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15-01-1990</t>
+          <t>30.04.1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shiraz</t>
+          <t>Mogdisho</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,101 +612,101 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -723,109 +723,156 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hassan Haashi</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abdiqadir</t>
+          <t>Adhin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30.04.1990</t>
+          <t>30-01-1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mogdisho</t>
+          <t>Vannappuram</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamalabadi</t>
+          <t>Hassan Haashi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samin</t>
+          <t>Abdiqadir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15-01-1990</t>
+          <t>30.04.1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shiraz</t>
+          <t>Mogdisho</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,101 +659,101 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -770,109 +770,156 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Djemaili</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adhin</t>
+          <t>Azem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30-01-1997</t>
+          <t>03-07-1991</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vannappuram</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hassan Haashi</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abdiqadir</t>
+          <t>Adhin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30.04.1990</t>
+          <t>30-01-1997</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mogdisho</t>
+          <t>Vannappuram</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jamalabadi</t>
+          <t>Hassan Haashi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samin</t>
+          <t>Abdiqadir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15-01-1990</t>
+          <t>30.04.1990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shiraz</t>
+          <t>Mogdisho</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,61 +706,91 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
@@ -768,39 +798,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -817,109 +817,156 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Djemaili</t>
+          <t>Kahyaoglu</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azem</t>
+          <t>Kerem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03-07-1991</t>
+          <t>06-08-1984</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Djemaili</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adhin</t>
+          <t>Azem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30-01-1997</t>
+          <t>03-07-1991</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vannappuram</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hassan Haashi</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abdiqadir</t>
+          <t>Adhin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30.04.1990</t>
+          <t>30-01-1997</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mogdisho</t>
+          <t>Vannappuram</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jamalabadi</t>
+          <t>Hassan Haashi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samin</t>
+          <t>Abdiqadir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15-01-1990</t>
+          <t>30.04.1990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Shiraz</t>
+          <t>Mogdisho</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,101 +753,101 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -864,109 +864,156 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kahyaoglu</t>
+          <t>Hepkaya</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kerem</t>
+          <t>Cengiz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-08-1984</t>
+          <t>30-09-1982</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Bartin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,27 +518,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Djemaili</t>
+          <t>Kahyaoglu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azem</t>
+          <t>Kerem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-07-1991</t>
+          <t>06-08-1984</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Djemaili</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adhin</t>
+          <t>Azem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30-01-1997</t>
+          <t>03-07-1991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vannappuram</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hassan Haashi</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abdiqadir</t>
+          <t>Adhin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30.04.1990</t>
+          <t>30-01-1997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mogdisho</t>
+          <t>Vannappuram</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jamalabadi</t>
+          <t>Hassan Haashi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samin</t>
+          <t>Abdiqadir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15-01-1990</t>
+          <t>30.04.1990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shiraz</t>
+          <t>Mogdisho</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,101 +800,101 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -911,109 +911,156 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12404.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,42 +471,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hepkaya</t>
+          <t>Amsalam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cengiz</t>
+          <t>Shaima idris Amsalam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30-09-1982</t>
+          <t>24-05-1999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bartin</t>
+          <t>Darnah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kahyaoglu</t>
+          <t>Hepkaya</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kerem</t>
+          <t>Cengiz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06-08-1984</t>
+          <t>30-09-1982</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Bartin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,27 +565,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Djemaili</t>
+          <t>Kahyaoglu</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azem</t>
+          <t>Kerem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03-07-1991</t>
+          <t>06-08-1984</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Djemaili</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adhin</t>
+          <t>Azem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30-01-1997</t>
+          <t>03-07-1991</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vannappuram</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hassan Haashi</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abdiqadir</t>
+          <t>Adhin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30.04.1990</t>
+          <t>30-01-1997</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mogdisho</t>
+          <t>Vannappuram</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jamalabadi</t>
+          <t>Hassan Haashi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samin</t>
+          <t>Abdiqadir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15-01-1990</t>
+          <t>30.04.1990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Shiraz</t>
+          <t>Mogdisho</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Al Zoubi</t>
+          <t>Jamalabadi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modar</t>
+          <t>Samin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21-10-1997</t>
+          <t>15-01-1990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Daraa</t>
+          <t>Shiraz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ngome</t>
+          <t>Al Zoubi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edwin Ntongwe</t>
+          <t>Modar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09-10-1981</t>
+          <t>21-10-1997</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tombel</t>
+          <t>Daraa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Herne</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,101 +847,101 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Ngome</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Edwin Ntongwe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09-10-1981</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tombel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Juma Murad</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Murad</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>01-01-1982</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Bahzani</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Rehberg Loccum</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
         <is>
           <t>000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Mukhtar</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>09-02-1989</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Peshawar/PAK</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -958,109 +958,156 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mukhtar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09-02-1989</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Peshawar/PAK</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Ayoubi</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Mohamed</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>06-05-1993</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Aleppo</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Oberhausen</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Şükrü</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Özyurt</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>05081978</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Fatsa</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Ratingen</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
